--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H2">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N2">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q2">
-        <v>6.179397056786554</v>
+        <v>1.572315029679666</v>
       </c>
       <c r="R2">
-        <v>6.179397056786554</v>
+        <v>14.150835267117</v>
       </c>
       <c r="S2">
-        <v>0.001147248558222389</v>
+        <v>0.0002407591800682515</v>
       </c>
       <c r="T2">
-        <v>0.001147248558222389</v>
+        <v>0.0002407591800682515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H3">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I3">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J3">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N3">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q3">
-        <v>767.282090332276</v>
+        <v>6.757002775225</v>
       </c>
       <c r="R3">
-        <v>767.282090332276</v>
+        <v>60.813024977025</v>
       </c>
       <c r="S3">
-        <v>0.142451320702367</v>
+        <v>0.001034659350813117</v>
       </c>
       <c r="T3">
-        <v>0.142451320702367</v>
+        <v>0.001034659350813117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.8629981785385</v>
+        <v>14.452709</v>
       </c>
       <c r="H4">
-        <v>45.8629981785385</v>
+        <v>43.358127</v>
       </c>
       <c r="I4">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J4">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N4">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q4">
-        <v>21.22288145346598</v>
+        <v>944.4163693567862</v>
       </c>
       <c r="R4">
-        <v>21.22288145346598</v>
+        <v>8499.747324211075</v>
       </c>
       <c r="S4">
-        <v>0.003940177322328446</v>
+        <v>0.144612820228335</v>
       </c>
       <c r="T4">
-        <v>0.003940177322328446</v>
+        <v>0.144612820228335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8629981785385</v>
+        <v>14.452709</v>
       </c>
       <c r="H5">
-        <v>45.8629981785385</v>
+        <v>43.358127</v>
       </c>
       <c r="I5">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J5">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.4580476884852</v>
+        <v>0.8144386666666666</v>
       </c>
       <c r="N5">
-        <v>57.4580476884852</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="P5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="Q5">
-        <v>2635.198336479375</v>
+        <v>11.77084504768133</v>
       </c>
       <c r="R5">
-        <v>2635.198336479375</v>
+        <v>105.937605429132</v>
       </c>
       <c r="S5">
-        <v>0.4892431194133617</v>
+        <v>0.001802398977873769</v>
       </c>
       <c r="T5">
-        <v>0.4892431194133617</v>
+        <v>0.001802398977873769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.6620531093463</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H6">
-        <v>32.6620531093463</v>
+        <v>137.745872</v>
       </c>
       <c r="I6">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J6">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N6">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q6">
-        <v>15.11420772074252</v>
+        <v>4.995139776723556</v>
       </c>
       <c r="R6">
-        <v>15.11420772074252</v>
+        <v>44.956257990512</v>
       </c>
       <c r="S6">
-        <v>0.002806059047015288</v>
+        <v>0.0007648758259439189</v>
       </c>
       <c r="T6">
-        <v>0.002806059047015288</v>
+        <v>0.0007648758259439188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.6620531093463</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H7">
-        <v>32.6620531093463</v>
+        <v>137.745872</v>
       </c>
       <c r="I7">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J7">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N7">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O7">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P7">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q7">
-        <v>1876.697805160656</v>
+        <v>21.46654626893334</v>
       </c>
       <c r="R7">
-        <v>1876.697805160656</v>
+        <v>193.1989164204001</v>
       </c>
       <c r="S7">
-        <v>0.348422156952206</v>
+        <v>0.003287043614700118</v>
       </c>
       <c r="T7">
-        <v>0.348422156952206</v>
+        <v>0.003287043614700118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.11498826347291</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H8">
-        <v>1.11498826347291</v>
+        <v>137.745872</v>
       </c>
       <c r="I8">
-        <v>0.01198991800449919</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J8">
-        <v>0.01198991800449919</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N8">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O8">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P8">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q8">
-        <v>0.5159554472556189</v>
+        <v>3000.347693250786</v>
       </c>
       <c r="R8">
-        <v>0.5159554472556189</v>
+        <v>27003.12923925707</v>
       </c>
       <c r="S8">
-        <v>9.579076041422317E-05</v>
+        <v>0.4594252658730218</v>
       </c>
       <c r="T8">
-        <v>9.579076041422317E-05</v>
+        <v>0.4594252658730218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>45.91529066666667</v>
+      </c>
+      <c r="H9">
+        <v>137.745872</v>
+      </c>
+      <c r="I9">
+        <v>0.4692032864180593</v>
+      </c>
+      <c r="J9">
+        <v>0.4692032864180593</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.443316</v>
+      </c>
+      <c r="O9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q9">
+        <v>37.39518811017245</v>
+      </c>
+      <c r="R9">
+        <v>336.556692991552</v>
+      </c>
+      <c r="S9">
+        <v>0.005726101104393443</v>
+      </c>
+      <c r="T9">
+        <v>0.005726101104393442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.11498826347291</v>
-      </c>
-      <c r="H9">
-        <v>1.11498826347291</v>
-      </c>
-      <c r="I9">
-        <v>0.01198991800449919</v>
-      </c>
-      <c r="J9">
-        <v>0.01198991800449919</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="N9">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="O9">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="P9">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="Q9">
-        <v>64.06504881472776</v>
-      </c>
-      <c r="R9">
-        <v>64.06504881472776</v>
-      </c>
-      <c r="S9">
-        <v>0.01189412724408496</v>
-      </c>
-      <c r="T9">
-        <v>0.01189412724408496</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>36.015061</v>
+      </c>
+      <c r="H10">
+        <v>108.045183</v>
+      </c>
+      <c r="I10">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J10">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.326371</v>
+      </c>
+      <c r="O10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q10">
+        <v>3.918090491210333</v>
+      </c>
+      <c r="R10">
+        <v>35.262814420893</v>
+      </c>
+      <c r="S10">
+        <v>0.0005999537219263228</v>
+      </c>
+      <c r="T10">
+        <v>0.0005999537219263227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>36.015061</v>
+      </c>
+      <c r="H11">
+        <v>108.045183</v>
+      </c>
+      <c r="I11">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J11">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.467525</v>
+      </c>
+      <c r="N11">
+        <v>1.402575</v>
+      </c>
+      <c r="O11">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P11">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q11">
+        <v>16.837941394025</v>
+      </c>
+      <c r="R11">
+        <v>151.541472546225</v>
+      </c>
+      <c r="S11">
+        <v>0.002578293082200356</v>
+      </c>
+      <c r="T11">
+        <v>0.002578293082200356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>36.015061</v>
+      </c>
+      <c r="H12">
+        <v>108.045183</v>
+      </c>
+      <c r="I12">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J12">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N12">
+        <v>196.035851</v>
+      </c>
+      <c r="O12">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P12">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q12">
+        <v>2353.414377317304</v>
+      </c>
+      <c r="R12">
+        <v>21180.72939585573</v>
+      </c>
+      <c r="S12">
+        <v>0.3603642432643956</v>
+      </c>
+      <c r="T12">
+        <v>0.3603642432643955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>36.015061</v>
+      </c>
+      <c r="H13">
+        <v>108.045183</v>
+      </c>
+      <c r="I13">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J13">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.443316</v>
+      </c>
+      <c r="O13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q13">
+        <v>29.33205826075867</v>
+      </c>
+      <c r="R13">
+        <v>263.988524346828</v>
+      </c>
+      <c r="S13">
+        <v>0.004491442340288002</v>
+      </c>
+      <c r="T13">
+        <v>0.004491442340288002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J14">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.326371</v>
+      </c>
+      <c r="O14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q14">
+        <v>0.1604580900798889</v>
+      </c>
+      <c r="R14">
+        <v>1.444122810719</v>
+      </c>
+      <c r="S14">
+        <v>2.456998595938009E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.456998595938008E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J15">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.467525</v>
+      </c>
+      <c r="N15">
+        <v>1.402575</v>
+      </c>
+      <c r="O15">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P15">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q15">
+        <v>0.6895664924083335</v>
+      </c>
+      <c r="R15">
+        <v>6.206098431675001</v>
+      </c>
+      <c r="S15">
+        <v>0.0001055891854882252</v>
+      </c>
+      <c r="T15">
+        <v>0.0001055891854882251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J16">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N16">
+        <v>196.035851</v>
+      </c>
+      <c r="O16">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P16">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q16">
+        <v>96.37969745671545</v>
+      </c>
+      <c r="R16">
+        <v>867.417277110439</v>
+      </c>
+      <c r="S16">
+        <v>0.01475804561865217</v>
+      </c>
+      <c r="T16">
+        <v>0.01475804561865217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J17">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.443316</v>
+      </c>
+      <c r="O17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q17">
+        <v>1.201239751147111</v>
+      </c>
+      <c r="R17">
+        <v>10.811157760324</v>
+      </c>
+      <c r="S17">
+        <v>0.0001839386459407506</v>
+      </c>
+      <c r="T17">
+        <v>0.0001839386459407506</v>
       </c>
     </row>
   </sheetData>
